--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Desktop\encepp-model-changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160DD77-7013-4E9D-B3EB-1049F9EF0D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170B85F-1318-4CDF-A4BC-5F7923B14DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +484,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -718,7 +719,7 @@
     <col min="29" max="16384" width="12.6875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -740,8 +741,14 @@
       <c r="G1" s="7" t="s">
         <v>111</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -760,8 +767,11 @@
       <c r="G2" s="7">
         <v>100</v>
       </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -780,8 +790,11 @@
       <c r="G3" s="7">
         <v>23</v>
       </c>
+      <c r="H3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -800,8 +813,11 @@
       <c r="G4" s="7">
         <v>200</v>
       </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -820,8 +836,11 @@
       <c r="G5" s="7">
         <v>203</v>
       </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -840,8 +859,11 @@
       <c r="G6" s="7">
         <v>42</v>
       </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -860,16 +882,19 @@
       <c r="G7" s="7">
         <v>42</v>
       </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1867,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1003"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4521,11 +4546,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4540,7 +4563,7 @@
     <col min="9" max="27" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -4565,8 +4588,14 @@
       <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -4590,7 +4619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -4614,7 +4643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4638,7 +4667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -4662,7 +4691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -4686,7 +4715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -4710,7 +4739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -4734,7 +4763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -4758,7 +4787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -4782,7 +4811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -4806,17 +4835,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170B85F-1318-4CDF-A4BC-5F7923B14DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB65BB8-F900-4AB0-A03A-96D7BEB4D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4548,7 +4548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4618,6 +4620,9 @@
       <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -4642,6 +4647,9 @@
       <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
@@ -4666,6 +4674,9 @@
       <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
@@ -4690,6 +4701,9 @@
       <c r="H5" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
@@ -4714,6 +4728,9 @@
       <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
@@ -4738,6 +4755,9 @@
       <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
@@ -4762,6 +4782,9 @@
       <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
@@ -4786,6 +4809,9 @@
       <c r="H9" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
@@ -4810,6 +4836,9 @@
       <c r="H10" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
@@ -4833,6 +4862,9 @@
       </c>
       <c r="H11" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -5833,6 +5865,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB65BB8-F900-4AB0-A03A-96D7BEB4D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCDB05-45DC-486C-B043-CA432628F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -381,12 +381,6 @@
     <t>is repeat of.name</t>
   </si>
   <si>
-    <t>collection event.resource</t>
-  </si>
-  <si>
-    <t>collection event.name</t>
-  </si>
-  <si>
     <t>is repeat of.dataset</t>
   </si>
   <si>
@@ -394,6 +388,9 @@
   </si>
   <si>
     <t>variable.name</t>
+  </si>
+  <si>
+    <t>collection event</t>
   </si>
 </sst>
 </file>
@@ -702,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1890,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S1003"/>
+  <dimension ref="A1:R1003"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1906,22 +1903,21 @@
     <col min="6" max="6" width="8.625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.0625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.8125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="7.6875" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="12.6875" style="5"/>
+    <col min="9" max="9" width="17.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.8125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="7.6875" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="12.6875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -1947,40 +1943,37 @@
         <v>105</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -1999,21 +1992,18 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="8">
+      <c r="Q2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2030,20 +2020,17 @@
         <v>13</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="8">
+      <c r="Q3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -2060,17 +2047,14 @@
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="8">
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -2090,20 +2074,17 @@
         <v>39</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="7" t="s">
-        <v>103</v>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -2123,17 +2104,14 @@
         <v>31</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="7" t="s">
-        <v>103</v>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -2156,20 +2134,17 @@
         <v>29</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="7" t="s">
-        <v>103</v>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -2192,20 +2167,17 @@
         <v>30</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="7" t="s">
-        <v>103</v>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -2228,20 +2200,17 @@
         <v>29</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="7" t="s">
-        <v>103</v>
+      <c r="I9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -2264,20 +2233,17 @@
         <v>30</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="7" t="s">
-        <v>103</v>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -2297,20 +2263,17 @@
         <v>87</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="7" t="s">
-        <v>103</v>
+      <c r="I11" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>103</v>
       </c>
@@ -2333,20 +2296,17 @@
         <v>80</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="7" t="s">
-        <v>103</v>
+      <c r="I12" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
@@ -2363,23 +2323,20 @@
         <v>35</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="7" t="s">
-        <v>103</v>
+      <c r="I13" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="8">
+      <c r="Q13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
@@ -2396,18 +2353,15 @@
         <v>13</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3406,7 +3360,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3429,10 +3383,10 @@
         <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -4546,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4560,12 +4514,12 @@
     <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.0625" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="7.6875" customWidth="1"/>
+    <col min="7" max="7" width="17.0625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -4579,25 +4533,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -4615,16 +4566,13 @@
         <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="8">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -4642,16 +4590,13 @@
         <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="8">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4669,16 +4614,13 @@
         <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="8">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -4696,16 +4638,13 @@
         <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="8">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -4723,16 +4662,13 @@
         <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="8">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -4750,16 +4686,13 @@
         <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="8">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -4777,16 +4710,13 @@
         <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="8">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -4804,16 +4734,13 @@
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -4831,16 +4758,13 @@
         <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="8">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -4858,26 +4782,23 @@
         <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="8">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCDB05-45DC-486C-B043-CA432628F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2EDDA-592A-4BED-823B-03ECC517BA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -390,7 +390,10 @@
     <t>variable.name</t>
   </si>
   <si>
-    <t>collection event</t>
+    <t>collection event.resource</t>
+  </si>
+  <si>
+    <t>collection event.name</t>
   </si>
 </sst>
 </file>
@@ -1887,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1003"/>
+  <dimension ref="A1:S1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1903,21 +1906,22 @@
     <col min="6" max="6" width="8.625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.0625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="7.6875" style="5" customWidth="1"/>
-    <col min="28" max="16384" width="12.6875" style="5"/>
+    <col min="9" max="9" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.8125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="7.6875" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="12.6875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -1946,34 +1950,37 @@
         <v>120</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -1992,18 +1999,21 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="R2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -2020,17 +2030,20 @@
         <v>13</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -2047,14 +2060,17 @@
         <v>13</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -2074,17 +2090,20 @@
         <v>39</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -2104,14 +2123,17 @@
         <v>31</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -2134,17 +2156,20 @@
         <v>29</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -2167,17 +2192,20 @@
         <v>30</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -2200,17 +2228,20 @@
         <v>29</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -2233,17 +2264,20 @@
         <v>30</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -2263,17 +2297,20 @@
         <v>87</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>103</v>
       </c>
@@ -2296,17 +2333,20 @@
         <v>80</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>103</v>
       </c>
@@ -2323,20 +2363,23 @@
         <v>35</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>103</v>
       </c>
@@ -2353,15 +2396,18 @@
         <v>13</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4500,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4514,12 +4560,13 @@
     <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.0625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="7.6875" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="17.0625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>102</v>
       </c>
@@ -4542,13 +4589,16 @@
         <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -4565,14 +4615,17 @@
       <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>103</v>
       </c>
@@ -4589,14 +4642,17 @@
       <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>103</v>
       </c>
@@ -4613,14 +4669,17 @@
       <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -4637,14 +4696,17 @@
       <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>103</v>
       </c>
@@ -4661,14 +4723,17 @@
       <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>103</v>
       </c>
@@ -4685,14 +4750,17 @@
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>103</v>
       </c>
@@ -4709,14 +4777,17 @@
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>103</v>
       </c>
@@ -4733,14 +4804,17 @@
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>103</v>
       </c>
@@ -4757,14 +4831,17 @@
       <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>103</v>
       </c>
@@ -4781,24 +4858,27 @@
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB65BB8-F900-4AB0-A03A-96D7BEB4D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2EDDA-592A-4BED-823B-03ECC517BA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="1" r:id="rId1"/>
@@ -381,19 +381,19 @@
     <t>is repeat of.name</t>
   </si>
   <si>
+    <t>is repeat of.dataset</t>
+  </si>
+  <si>
+    <t>variable.dataset</t>
+  </si>
+  <si>
+    <t>variable.name</t>
+  </si>
+  <si>
     <t>collection event.resource</t>
   </si>
   <si>
     <t>collection event.name</t>
-  </si>
-  <si>
-    <t>is repeat of.dataset</t>
-  </si>
-  <si>
-    <t>variable.dataset</t>
-  </si>
-  <si>
-    <t>variable.name</t>
   </si>
 </sst>
 </file>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1003"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1947,10 +1947,10 @@
         <v>105</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>2</v>
@@ -3406,7 +3406,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3429,10 +3429,10 @@
         <v>102</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -4548,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4560,9 +4560,10 @@
     <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="17.0625" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="7.6875" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="7.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4579,16 +4580,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>109</v>
@@ -4614,7 +4615,7 @@
       <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4641,7 +4642,7 @@
       <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -4668,7 +4669,7 @@
       <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -4695,7 +4696,7 @@
       <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -4722,7 +4723,7 @@
       <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -4749,7 +4750,7 @@
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -4776,7 +4777,7 @@
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4803,7 +4804,7 @@
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -4830,7 +4831,7 @@
       <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4857,7 +4858,7 @@
       <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H11" s="2" t="s">

--- a/docs/resources/SourceDictionary_testCohort.xlsx
+++ b/docs/resources/SourceDictionary_testCohort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C206DB-F133-4C11-A826-8A58552B1186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF05B8C-60FB-44D9-87A3-3F5BF98EC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
   <si>
     <t>label</t>
   </si>
@@ -408,30 +408,6 @@
     <t>bm_5</t>
   </si>
   <si>
-    <t>length_1</t>
-  </si>
-  <si>
-    <t>length_2</t>
-  </si>
-  <si>
-    <t>length_3</t>
-  </si>
-  <si>
-    <t>length_4</t>
-  </si>
-  <si>
-    <t>length_5</t>
-  </si>
-  <si>
-    <t>variable.resource</t>
-  </si>
-  <si>
-    <t>variable.dataset</t>
-  </si>
-  <si>
-    <t>variable.name</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -442,6 +418,12 @@
   </si>
   <si>
     <t>Collected dataset</t>
+  </si>
+  <si>
+    <t>length_</t>
+  </si>
+  <si>
+    <t>1 months,2 months,3 months,4 months,5 months</t>
   </si>
 </sst>
 </file>
@@ -874,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -900,7 +882,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -926,7 +908,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -952,7 +934,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -978,7 +960,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1004,7 +986,7 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -1026,9 +1008,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1590,80 +1574,12 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1677,7 +1593,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1696,13 +1612,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1740,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1766,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1789,7 +1705,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
